--- a/biology/Botanique/Polygala/Polygala.xlsx
+++ b/biology/Botanique/Polygala/Polygala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polygala est un genre d'environ 1 750 espèces de plantes à fleurs de la famille des Polygalaceae. Ce genre inclut des herbacées vivaces, arbustes et petits arbres.
 Caractères généraux : les fleurs complexes sont bleues, roses ou blanches. Leur fruit est une capsule.
@@ -512,7 +524,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Polygala alpestris Rchb.
@@ -553,7 +567,7 @@
 Polygala vulgaris L. - Polygale commun
 Polygala wattersii Hance
 Liste complète
-Selon BioLib                    (1 octobre 2020)[2] :
+Selon BioLib                    (1 octobre 2020) :
 Polygala acanthoclada Gray
 Polygala acarnanica (Chodat) Kožuharov &amp; Petrova
 Polygala alba Nutt.
@@ -702,7 +716,7 @@
 Polygala ×dalmaisiana Dazzler
 Polygala ×pawlowskii Rothm.
 Polygala ×skrivanekii Podp.
-Selon Catalogue of Life                                   (1 octobre 2020)[3] :
+Selon Catalogue of Life                                   (1 octobre 2020) :
 Polygala abbreviata Markötter
 Polygala abreui Marques &amp; J. F. B. Pastore
 Polygala abyssinica R. Br.
@@ -1365,7 +1379,7 @@
 Polygala yemenica Chod.
 Polygala youngii Exell
 Polygala zambesiaca J. A. R. Paiva
-Selon Tropicos                                           (1 octobre 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (1 octobre 2020) (Attention liste brute contenant possiblement des synonymes) :
 Polygala abbreviata Markötter
 Polygala aboriginum Small
 Polygala abreui Marques &amp; J.F.B. Pastore
@@ -1631,7 +1645,7 @@
 Polygala domingensis Jacq.
 Polygala duarteana A. St.-Hil. &amp; Moq.
 Polygala dukei Barringer
-Polygala dunali</t>
+Polygala dunaliana A. St</t>
         </is>
       </c>
     </row>
